--- a/assets/files/excel/2417.xlsx
+++ b/assets/files/excel/2417.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="witNntea04aTmcmlECD3zW3j7IxaOBKqr07ghFMBqjssvRdj2EI5bKG8qU3jbpLo627NUDT7c8rDSIWqY7OMCQ==" workbookSaltValue="MQqMv/UGllQeHzb1msmxHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Такси &quot;Ротор&quot;" sheetId="1" r:id="rId1"/>
@@ -945,11 +945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379260352"/>
-        <c:axId val="379486464"/>
+        <c:axId val="251065328"/>
+        <c:axId val="251064936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379260352"/>
+        <c:axId val="251065328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,12 +959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379486464"/>
+        <c:crossAx val="251064936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379486464"/>
+        <c:axId val="251064936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379260352"/>
+        <c:crossAx val="251065328"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1046,7 +1046,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,9 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,9 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1696,7 +1692,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>IFERROR(IF('Такси "Ротор" (решение)'!B9='Такси "Ротор"'!B9,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Такси "Ротор" (решение)'!B9-'Такси "Ротор"'!B9)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1795,7 +1791,7 @@
         <v>510</v>
       </c>
       <c r="I17" s="14" t="str">
-        <f>IFERROR(IF(SUM('Такси "Ротор"'!B17:H17)=SUM('Такси "Ротор" (решение)'!B17:H17),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Такси "Ротор"'!B17:H17)-SUM('Такси "Ротор" (решение)'!B17:H17))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1832,7 +1828,7 @@
         <v>390</v>
       </c>
       <c r="I18" s="14" t="str">
-        <f>IFERROR(IF(SUM('Такси "Ротор"'!B18:H18)=SUM('Такси "Ротор" (решение)'!B18:H18),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Такси "Ротор"'!B18:H18)-SUM('Такси "Ротор" (решение)'!B18:H18))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1869,7 +1865,7 @@
         <v>270</v>
       </c>
       <c r="I19" s="14" t="str">
-        <f>IFERROR(IF(SUM('Такси "Ротор"'!B19:H19)=SUM('Такси "Ротор" (решение)'!B19:H19),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Такси "Ротор"'!B19:H19)-SUM('Такси "Ротор" (решение)'!B19:H19))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
